--- a/Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA0C6CD-CA07-4CD1-9565-7149995D4F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERIC" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,140 +686,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23314500</v>
+        <v>22694600</v>
       </c>
       <c r="E8" s="3">
-        <v>25270500</v>
+        <v>22106900</v>
       </c>
       <c r="F8" s="3">
-        <v>28030400</v>
+        <v>23714800</v>
       </c>
       <c r="G8" s="3">
-        <v>25880600</v>
+        <v>26578500</v>
       </c>
       <c r="H8" s="3">
-        <v>25811700</v>
+        <v>24540100</v>
       </c>
       <c r="I8" s="3">
-        <v>25857500</v>
+        <v>24474800</v>
       </c>
       <c r="J8" s="3">
+        <v>24518100</v>
+      </c>
+      <c r="K8" s="3">
         <v>25760100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17278800</v>
+        <v>14714400</v>
       </c>
       <c r="E9" s="3">
-        <v>17342200</v>
+        <v>16383800</v>
       </c>
       <c r="F9" s="3">
-        <v>18030000</v>
+        <v>16316800</v>
       </c>
       <c r="G9" s="3">
-        <v>16406700</v>
+        <v>17096100</v>
       </c>
       <c r="H9" s="3">
-        <v>16840500</v>
+        <v>15556900</v>
       </c>
       <c r="I9" s="3">
-        <v>17675000</v>
+        <v>15968200</v>
       </c>
       <c r="J9" s="3">
+        <v>16759400</v>
+      </c>
+      <c r="K9" s="3">
         <v>16710100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6035700</v>
+        <v>7980200</v>
       </c>
       <c r="E10" s="3">
-        <v>7928200</v>
+        <v>5723100</v>
       </c>
       <c r="F10" s="3">
-        <v>10000300</v>
+        <v>7398000</v>
       </c>
       <c r="G10" s="3">
-        <v>9473900</v>
+        <v>9482300</v>
       </c>
       <c r="H10" s="3">
-        <v>8971300</v>
+        <v>8983200</v>
       </c>
       <c r="I10" s="3">
-        <v>8182500</v>
+        <v>8506600</v>
       </c>
       <c r="J10" s="3">
+        <v>7758700</v>
+      </c>
+      <c r="K10" s="3">
         <v>9049900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,35 +843,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4039000</v>
+        <v>4049000</v>
       </c>
       <c r="E12" s="3">
-        <v>3280300</v>
+        <v>3829800</v>
       </c>
       <c r="F12" s="3">
-        <v>3726100</v>
+        <v>3109900</v>
       </c>
       <c r="G12" s="3">
-        <v>4087200</v>
+        <v>3533100</v>
       </c>
       <c r="H12" s="3">
-        <v>3560400</v>
+        <v>3875500</v>
       </c>
       <c r="I12" s="3">
-        <v>3630500</v>
+        <v>3376000</v>
       </c>
       <c r="J12" s="3">
+        <v>3442400</v>
+      </c>
+      <c r="K12" s="3">
         <v>3641400</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,36 +900,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2983400</v>
+        <v>910400</v>
       </c>
       <c r="E14" s="3">
-        <v>859000</v>
+        <v>2795200</v>
       </c>
       <c r="F14" s="3">
-        <v>572100</v>
+        <v>805600</v>
       </c>
       <c r="G14" s="3">
-        <v>165300</v>
+        <v>542500</v>
       </c>
       <c r="H14" s="3">
-        <v>505500</v>
+        <v>156700</v>
       </c>
       <c r="I14" s="3">
-        <v>174100</v>
+        <v>479300</v>
       </c>
       <c r="J14" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K14" s="3">
         <v>237600</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,9 +960,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -914,62 +974,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>27258500</v>
+        <v>22560900</v>
       </c>
       <c r="E17" s="3">
-        <v>24555400</v>
+        <v>25846600</v>
       </c>
       <c r="F17" s="3">
-        <v>25555100</v>
+        <v>23156500</v>
       </c>
       <c r="G17" s="3">
-        <v>23972700</v>
+        <v>24231400</v>
       </c>
       <c r="H17" s="3">
-        <v>23786000</v>
+        <v>22731000</v>
       </c>
       <c r="I17" s="3">
-        <v>24670300</v>
+        <v>22553900</v>
       </c>
       <c r="J17" s="3">
+        <v>23392400</v>
+      </c>
+      <c r="K17" s="3">
         <v>23728100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-3944000</v>
+        <v>133700</v>
       </c>
       <c r="E18" s="3">
-        <v>715100</v>
+        <v>-3739700</v>
       </c>
       <c r="F18" s="3">
-        <v>2475300</v>
+        <v>558300</v>
       </c>
       <c r="G18" s="3">
-        <v>1907900</v>
+        <v>2347100</v>
       </c>
       <c r="H18" s="3">
-        <v>2025800</v>
+        <v>1809100</v>
       </c>
       <c r="I18" s="3">
-        <v>1187200</v>
+        <v>1920800</v>
       </c>
       <c r="J18" s="3">
+        <v>1125700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2032000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,143 +1048,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-21300</v>
+        <v>-183800</v>
       </c>
       <c r="E20" s="3">
-        <v>-104200</v>
+        <v>-20200</v>
       </c>
       <c r="F20" s="3">
-        <v>-57300</v>
+        <v>-101000</v>
       </c>
       <c r="G20" s="3">
-        <v>43100</v>
+        <v>-54400</v>
       </c>
       <c r="H20" s="3">
-        <v>75500</v>
+        <v>40900</v>
       </c>
       <c r="I20" s="3">
-        <v>165500</v>
+        <v>71600</v>
       </c>
       <c r="J20" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K20" s="3">
         <v>218800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-300600</v>
+        <v>728100</v>
       </c>
       <c r="E21" s="3">
-        <v>1620900</v>
+        <v>-2849100</v>
       </c>
       <c r="F21" s="3">
-        <v>3580000</v>
+        <v>1415100</v>
       </c>
       <c r="G21" s="3">
-        <v>3079500</v>
+        <v>3394600</v>
       </c>
       <c r="H21" s="3">
-        <v>3255600</v>
+        <v>2919900</v>
       </c>
       <c r="I21" s="3">
-        <v>2476800</v>
+        <v>3086900</v>
       </c>
       <c r="J21" s="3">
+        <v>2348500</v>
+      </c>
+      <c r="K21" s="3">
         <v>3277900</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>116600</v>
+        <v>107300</v>
       </c>
       <c r="E22" s="3">
-        <v>153800</v>
+        <v>110500</v>
       </c>
       <c r="F22" s="3">
-        <v>162100</v>
+        <v>145900</v>
       </c>
       <c r="G22" s="3">
-        <v>156200</v>
+        <v>153700</v>
       </c>
       <c r="H22" s="3">
-        <v>160300</v>
+        <v>148100</v>
       </c>
       <c r="I22" s="3">
-        <v>196800</v>
+        <v>152000</v>
       </c>
       <c r="J22" s="3">
+        <v>186600</v>
+      </c>
+      <c r="K22" s="3">
         <v>193700</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-4082000</v>
+        <v>-157500</v>
       </c>
       <c r="E23" s="3">
-        <v>457000</v>
+        <v>-3870500</v>
       </c>
       <c r="F23" s="3">
-        <v>2255900</v>
+        <v>311500</v>
       </c>
       <c r="G23" s="3">
-        <v>1794900</v>
+        <v>2139000</v>
       </c>
       <c r="H23" s="3">
-        <v>1941000</v>
+        <v>1701900</v>
       </c>
       <c r="I23" s="3">
-        <v>1155900</v>
+        <v>1840400</v>
       </c>
       <c r="J23" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2057100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-400200</v>
+        <v>518100</v>
       </c>
       <c r="E24" s="3">
-        <v>241900</v>
+        <v>-379400</v>
       </c>
       <c r="F24" s="3">
-        <v>703700</v>
+        <v>202600</v>
       </c>
       <c r="G24" s="3">
-        <v>529900</v>
+        <v>667300</v>
       </c>
       <c r="H24" s="3">
-        <v>559000</v>
+        <v>502500</v>
       </c>
       <c r="I24" s="3">
-        <v>481800</v>
+        <v>530000</v>
       </c>
       <c r="J24" s="3">
+        <v>456800</v>
+      </c>
+      <c r="K24" s="3">
         <v>630300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1142,63 +1225,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-3681800</v>
+        <v>-675500</v>
       </c>
       <c r="E26" s="3">
-        <v>215100</v>
+        <v>-3491100</v>
       </c>
       <c r="F26" s="3">
-        <v>1552200</v>
+        <v>108900</v>
       </c>
       <c r="G26" s="3">
-        <v>1265000</v>
+        <v>1471800</v>
       </c>
       <c r="H26" s="3">
-        <v>1382000</v>
+        <v>1199400</v>
       </c>
       <c r="I26" s="3">
-        <v>674100</v>
+        <v>1310400</v>
       </c>
       <c r="J26" s="3">
+        <v>639200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1426800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-3698000</v>
+        <v>-702900</v>
       </c>
       <c r="E27" s="3">
-        <v>194800</v>
+        <v>-3506500</v>
       </c>
       <c r="F27" s="3">
-        <v>1538100</v>
+        <v>89700</v>
       </c>
       <c r="G27" s="3">
-        <v>1313200</v>
+        <v>1458400</v>
       </c>
       <c r="H27" s="3">
-        <v>1362800</v>
+        <v>1245200</v>
       </c>
       <c r="I27" s="3">
-        <v>655600</v>
+        <v>1292200</v>
       </c>
       <c r="J27" s="3">
+        <v>621600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1384300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1223,9 +1315,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1250,9 +1345,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1277,9 +1375,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1304,63 +1405,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>21300</v>
+        <v>183800</v>
       </c>
       <c r="E32" s="3">
-        <v>104200</v>
+        <v>20200</v>
       </c>
       <c r="F32" s="3">
-        <v>57300</v>
+        <v>101000</v>
       </c>
       <c r="G32" s="3">
-        <v>-43100</v>
+        <v>54400</v>
       </c>
       <c r="H32" s="3">
-        <v>-75500</v>
+        <v>-40900</v>
       </c>
       <c r="I32" s="3">
-        <v>-165500</v>
+        <v>-71600</v>
       </c>
       <c r="J32" s="3">
+        <v>-156900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-218800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-3698000</v>
+        <v>-702900</v>
       </c>
       <c r="E33" s="3">
-        <v>194800</v>
+        <v>-3506500</v>
       </c>
       <c r="F33" s="3">
-        <v>1538100</v>
+        <v>89700</v>
       </c>
       <c r="G33" s="3">
-        <v>1313200</v>
+        <v>1458400</v>
       </c>
       <c r="H33" s="3">
-        <v>1362800</v>
+        <v>1245200</v>
       </c>
       <c r="I33" s="3">
-        <v>655600</v>
+        <v>1292200</v>
       </c>
       <c r="J33" s="3">
+        <v>621600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1384300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1385,68 +1495,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-3698000</v>
+        <v>-702900</v>
       </c>
       <c r="E35" s="3">
-        <v>194800</v>
+        <v>-3506500</v>
       </c>
       <c r="F35" s="3">
-        <v>1538100</v>
+        <v>89700</v>
       </c>
       <c r="G35" s="3">
-        <v>1313200</v>
+        <v>1458400</v>
       </c>
       <c r="H35" s="3">
-        <v>1362800</v>
+        <v>1245200</v>
       </c>
       <c r="I35" s="3">
-        <v>655600</v>
+        <v>1292200</v>
       </c>
       <c r="J35" s="3">
+        <v>621600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1384300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1458,8 +1577,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1471,251 +1591,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>6162700</v>
+        <v>2044900</v>
       </c>
       <c r="E41" s="3">
-        <v>2903500</v>
+        <v>1980900</v>
       </c>
       <c r="F41" s="3">
-        <v>2546400</v>
+        <v>6732100</v>
       </c>
       <c r="G41" s="3">
-        <v>3365900</v>
+        <v>2414500</v>
       </c>
       <c r="H41" s="3">
-        <v>3248700</v>
+        <v>3191500</v>
       </c>
       <c r="I41" s="3">
-        <v>5072300</v>
+        <v>3080400</v>
       </c>
       <c r="J41" s="3">
+        <v>4809600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4390500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2746500</v>
+        <v>2800400</v>
       </c>
       <c r="E42" s="3">
-        <v>2805500</v>
+        <v>2604200</v>
       </c>
       <c r="F42" s="3">
-        <v>4976600</v>
+        <v>2660200</v>
       </c>
       <c r="G42" s="3">
-        <v>4825600</v>
+        <v>4718800</v>
       </c>
       <c r="H42" s="3">
-        <v>5502400</v>
+        <v>4575700</v>
       </c>
       <c r="I42" s="3">
-        <v>3635600</v>
+        <v>5217400</v>
       </c>
       <c r="J42" s="3">
+        <v>3447300</v>
+      </c>
+      <c r="K42" s="3">
         <v>4752600</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18923600</v>
+        <v>9055200</v>
       </c>
       <c r="E43" s="3">
-        <v>10010200</v>
+        <v>15687500</v>
       </c>
       <c r="F43" s="3">
-        <v>10043200</v>
+        <v>19239900</v>
       </c>
       <c r="G43" s="3">
-        <v>10580200</v>
+        <v>9523000</v>
       </c>
       <c r="H43" s="3">
-        <v>9524700</v>
+        <v>10032200</v>
       </c>
       <c r="I43" s="3">
-        <v>9314700</v>
+        <v>9031300</v>
       </c>
       <c r="J43" s="3">
+        <v>8832200</v>
+      </c>
+      <c r="K43" s="3">
         <v>9211600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>5733600</v>
+        <v>3149000</v>
       </c>
       <c r="E44" s="3">
-        <v>3440500</v>
+        <v>2749900</v>
       </c>
       <c r="F44" s="3">
-        <v>3228100</v>
+        <v>6665600</v>
       </c>
       <c r="G44" s="3">
-        <v>3198400</v>
+        <v>3060900</v>
       </c>
       <c r="H44" s="3">
-        <v>2583600</v>
+        <v>3032800</v>
       </c>
       <c r="I44" s="3">
-        <v>3269600</v>
+        <v>2449800</v>
       </c>
       <c r="J44" s="3">
+        <v>3100200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3754100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>464400</v>
+        <v>298500</v>
       </c>
       <c r="E45" s="3">
-        <v>793800</v>
+        <v>440400</v>
       </c>
       <c r="F45" s="3">
-        <v>720600</v>
+        <v>752700</v>
       </c>
       <c r="G45" s="3">
-        <v>937000</v>
+        <v>683300</v>
       </c>
       <c r="H45" s="3">
-        <v>811100</v>
+        <v>888500</v>
       </c>
       <c r="I45" s="3">
-        <v>646000</v>
+        <v>769100</v>
       </c>
       <c r="J45" s="3">
+        <v>612600</v>
+      </c>
+      <c r="K45" s="3">
         <v>460800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17416600</v>
+        <v>17348000</v>
       </c>
       <c r="E46" s="3">
-        <v>19953500</v>
+        <v>16514500</v>
       </c>
       <c r="F46" s="3">
-        <v>21514900</v>
+        <v>18847400</v>
       </c>
       <c r="G46" s="3">
-        <v>22907100</v>
+        <v>20400500</v>
       </c>
       <c r="H46" s="3">
-        <v>21670500</v>
+        <v>21720600</v>
       </c>
       <c r="I46" s="3">
-        <v>21938200</v>
+        <v>20548000</v>
       </c>
       <c r="J46" s="3">
+        <v>20801900</v>
+      </c>
+      <c r="K46" s="3">
         <v>22569600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4220100</v>
+        <v>3643300</v>
       </c>
       <c r="E47" s="3">
-        <v>1828800</v>
+        <v>3767100</v>
       </c>
       <c r="F47" s="3">
-        <v>1067800</v>
+        <v>2212300</v>
       </c>
       <c r="G47" s="3">
-        <v>1210700</v>
+        <v>1012500</v>
       </c>
       <c r="H47" s="3">
-        <v>1071400</v>
+        <v>1148000</v>
       </c>
       <c r="I47" s="3">
-        <v>962900</v>
+        <v>1015900</v>
       </c>
       <c r="J47" s="3">
+        <v>913000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1553100</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2919100</v>
+        <v>1383100</v>
       </c>
       <c r="E48" s="3">
-        <v>1899600</v>
+        <v>1383900</v>
       </c>
       <c r="F48" s="3">
-        <v>1805100</v>
+        <v>3602500</v>
       </c>
       <c r="G48" s="3">
-        <v>1514500</v>
+        <v>1711600</v>
       </c>
       <c r="H48" s="3">
-        <v>1297900</v>
+        <v>1436000</v>
       </c>
       <c r="I48" s="3">
-        <v>1304700</v>
+        <v>1230600</v>
       </c>
       <c r="J48" s="3">
+        <v>1237100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1224700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>8299700</v>
+        <v>4063000</v>
       </c>
       <c r="E49" s="3">
-        <v>6721500</v>
+        <v>3934900</v>
       </c>
       <c r="F49" s="3">
-        <v>6345300</v>
+        <v>12746700</v>
       </c>
       <c r="G49" s="3">
-        <v>6179300</v>
+        <v>6016600</v>
       </c>
       <c r="H49" s="3">
-        <v>5415700</v>
+        <v>5859300</v>
       </c>
       <c r="I49" s="3">
-        <v>5613100</v>
+        <v>5135200</v>
       </c>
       <c r="J49" s="3">
+        <v>5322400</v>
+      </c>
+      <c r="K49" s="3">
         <v>4999900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1740,9 +1888,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1767,36 +1918,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2503000</v>
+        <v>2492100</v>
       </c>
       <c r="E52" s="3">
-        <v>1762100</v>
+        <v>2373400</v>
       </c>
       <c r="F52" s="3">
-        <v>1547800</v>
+        <v>1829700</v>
       </c>
       <c r="G52" s="3">
-        <v>1513100</v>
+        <v>1467700</v>
       </c>
       <c r="H52" s="3">
-        <v>1103000</v>
+        <v>1434700</v>
       </c>
       <c r="I52" s="3">
-        <v>1398700</v>
+        <v>1045800</v>
       </c>
       <c r="J52" s="3">
+        <v>1326200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1478000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1821,36 +1978,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>29501800</v>
+        <v>28929400</v>
       </c>
       <c r="E54" s="3">
-        <v>32165600</v>
+        <v>27973700</v>
       </c>
       <c r="F54" s="3">
-        <v>32280900</v>
+        <v>30585900</v>
       </c>
       <c r="G54" s="3">
-        <v>33324700</v>
+        <v>30608800</v>
       </c>
       <c r="H54" s="3">
-        <v>30558400</v>
+        <v>31598600</v>
       </c>
       <c r="I54" s="3">
-        <v>31217500</v>
+        <v>28975600</v>
       </c>
       <c r="J54" s="3">
+        <v>29600600</v>
+      </c>
+      <c r="K54" s="3">
         <v>31825200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1862,8 +2025,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1875,170 +2039,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>5975800</v>
+        <v>3216600</v>
       </c>
       <c r="E57" s="3">
-        <v>2874100</v>
+        <v>2833100</v>
       </c>
       <c r="F57" s="3">
-        <v>2541600</v>
+        <v>5507100</v>
       </c>
       <c r="G57" s="3">
-        <v>2778200</v>
+        <v>2410000</v>
       </c>
       <c r="H57" s="3">
-        <v>2327400</v>
+        <v>2634300</v>
       </c>
       <c r="I57" s="3">
-        <v>9200</v>
+        <v>2206800</v>
       </c>
       <c r="J57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K57" s="3">
         <v>11600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>577800</v>
+        <v>242700</v>
       </c>
       <c r="E58" s="3">
-        <v>911900</v>
+        <v>273900</v>
       </c>
       <c r="F58" s="3">
-        <v>269700</v>
+        <v>1729300</v>
       </c>
       <c r="G58" s="3">
-        <v>258900</v>
+        <v>255800</v>
       </c>
       <c r="H58" s="3">
-        <v>838700</v>
+        <v>245500</v>
       </c>
       <c r="I58" s="3">
-        <v>541400</v>
+        <v>795200</v>
       </c>
       <c r="J58" s="3">
+        <v>513300</v>
+      </c>
+      <c r="K58" s="3">
         <v>881500</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>15102000</v>
+        <v>8479400</v>
       </c>
       <c r="E59" s="3">
-        <v>6971700</v>
+        <v>10519500</v>
       </c>
       <c r="F59" s="3">
-        <v>7075100</v>
+        <v>13232100</v>
       </c>
       <c r="G59" s="3">
-        <v>8408400</v>
+        <v>6708700</v>
       </c>
       <c r="H59" s="3">
-        <v>7203300</v>
+        <v>7972900</v>
       </c>
       <c r="I59" s="3">
-        <v>10506700</v>
+        <v>6830200</v>
       </c>
       <c r="J59" s="3">
+        <v>9962500</v>
+      </c>
+      <c r="K59" s="3">
         <v>10121700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11298500</v>
+        <v>11938800</v>
       </c>
       <c r="E60" s="3">
-        <v>10757700</v>
+        <v>10713300</v>
       </c>
       <c r="F60" s="3">
-        <v>9886500</v>
+        <v>10850400</v>
       </c>
       <c r="G60" s="3">
-        <v>11445500</v>
+        <v>9374400</v>
       </c>
       <c r="H60" s="3">
-        <v>10369400</v>
+        <v>10852700</v>
       </c>
       <c r="I60" s="3">
-        <v>11057300</v>
+        <v>9832300</v>
       </c>
       <c r="J60" s="3">
+        <v>10484600</v>
+      </c>
+      <c r="K60" s="3">
         <v>11014700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3462400</v>
+        <v>3322800</v>
       </c>
       <c r="E61" s="3">
-        <v>2117500</v>
+        <v>3283000</v>
       </c>
       <c r="F61" s="3">
-        <v>2581900</v>
+        <v>2007800</v>
       </c>
       <c r="G61" s="3">
-        <v>2482000</v>
+        <v>2448200</v>
       </c>
       <c r="H61" s="3">
-        <v>2505000</v>
+        <v>2353400</v>
       </c>
       <c r="I61" s="3">
-        <v>2712900</v>
+        <v>2375300</v>
       </c>
       <c r="J61" s="3">
+        <v>2572400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2640000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3664700</v>
+        <v>4220200</v>
       </c>
       <c r="E62" s="3">
-        <v>3341700</v>
+        <v>3474800</v>
       </c>
       <c r="F62" s="3">
-        <v>3083500</v>
+        <v>3168600</v>
       </c>
       <c r="G62" s="3">
-        <v>2901700</v>
+        <v>2923800</v>
       </c>
       <c r="H62" s="3">
-        <v>1607000</v>
+        <v>2751400</v>
       </c>
       <c r="I62" s="3">
-        <v>1726800</v>
+        <v>1523800</v>
       </c>
       <c r="J62" s="3">
+        <v>1637300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1679400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2063,9 +2246,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,9 +2276,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2117,36 +2306,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>18497700</v>
+        <v>19567100</v>
       </c>
       <c r="E66" s="3">
-        <v>16293500</v>
+        <v>17539600</v>
       </c>
       <c r="F66" s="3">
-        <v>15647400</v>
+        <v>16099500</v>
       </c>
       <c r="G66" s="3">
-        <v>16943100</v>
+        <v>14836900</v>
       </c>
       <c r="H66" s="3">
-        <v>14642500</v>
+        <v>16065500</v>
       </c>
       <c r="I66" s="3">
-        <v>15678600</v>
+        <v>13884100</v>
       </c>
       <c r="J66" s="3">
+        <v>14866500</v>
+      </c>
+      <c r="K66" s="3">
         <v>15579900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2158,8 +2353,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2184,9 +2380,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2211,9 +2410,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2238,9 +2440,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2265,36 +2470,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6599700</v>
+        <v>4905700</v>
       </c>
       <c r="E72" s="3">
-        <v>11173700</v>
+        <v>5977500</v>
       </c>
       <c r="F72" s="3">
-        <v>11950000</v>
+        <v>10031400</v>
       </c>
       <c r="G72" s="3">
-        <v>11698100</v>
+        <v>11331000</v>
       </c>
       <c r="H72" s="3">
-        <v>11232500</v>
+        <v>11092200</v>
       </c>
       <c r="I72" s="3">
-        <v>10855500</v>
+        <v>10650700</v>
       </c>
       <c r="J72" s="3">
+        <v>10293200</v>
+      </c>
+      <c r="K72" s="3">
         <v>11579800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2319,9 +2530,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2346,9 +2560,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2373,36 +2590,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>11004100</v>
+        <v>9362300</v>
       </c>
       <c r="E76" s="3">
-        <v>15872000</v>
+        <v>10434100</v>
       </c>
       <c r="F76" s="3">
-        <v>16633500</v>
+        <v>14486400</v>
       </c>
       <c r="G76" s="3">
-        <v>16381600</v>
+        <v>15772000</v>
       </c>
       <c r="H76" s="3">
-        <v>15916000</v>
+        <v>15533100</v>
       </c>
       <c r="I76" s="3">
-        <v>15539000</v>
+        <v>15091600</v>
       </c>
       <c r="J76" s="3">
+        <v>14734100</v>
+      </c>
+      <c r="K76" s="3">
         <v>16245300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2427,68 +2650,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-3698000</v>
+        <v>-702900</v>
       </c>
       <c r="E81" s="3">
-        <v>194800</v>
+        <v>-3506500</v>
       </c>
       <c r="F81" s="3">
-        <v>1538100</v>
+        <v>89700</v>
       </c>
       <c r="G81" s="3">
-        <v>1313200</v>
+        <v>1458400</v>
       </c>
       <c r="H81" s="3">
-        <v>1362800</v>
+        <v>1245200</v>
       </c>
       <c r="I81" s="3">
-        <v>655600</v>
+        <v>1292200</v>
       </c>
       <c r="J81" s="3">
+        <v>621600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1384300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2500,35 +2732,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3659900</v>
+        <v>777300</v>
       </c>
       <c r="E83" s="3">
-        <v>1008700</v>
+        <v>909700</v>
       </c>
       <c r="F83" s="3">
-        <v>1160500</v>
+        <v>956500</v>
       </c>
       <c r="G83" s="3">
-        <v>1126900</v>
+        <v>1100400</v>
       </c>
       <c r="H83" s="3">
-        <v>1152800</v>
+        <v>1068500</v>
       </c>
       <c r="I83" s="3">
-        <v>1122600</v>
+        <v>1093100</v>
       </c>
       <c r="J83" s="3">
+        <v>1064500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1025800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2553,9 +2789,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2580,9 +2819,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2607,9 +2849,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2634,9 +2879,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2661,36 +2909,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1089900</v>
+        <v>1005600</v>
       </c>
       <c r="E89" s="3">
-        <v>1590400</v>
+        <v>1033500</v>
       </c>
       <c r="F89" s="3">
-        <v>2338200</v>
+        <v>1508000</v>
       </c>
       <c r="G89" s="3">
-        <v>2123100</v>
+        <v>2217100</v>
       </c>
       <c r="H89" s="3">
-        <v>1974000</v>
+        <v>2013100</v>
       </c>
       <c r="I89" s="3">
-        <v>2501000</v>
+        <v>1871800</v>
       </c>
       <c r="J89" s="3">
+        <v>2371400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1133200</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2702,35 +2956,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-604000</v>
+        <v>-427900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1204700</v>
+        <v>-417300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1321400</v>
+        <v>-659700</v>
       </c>
       <c r="G91" s="3">
-        <v>-777000</v>
+        <v>-897500</v>
       </c>
       <c r="H91" s="3">
-        <v>-615100</v>
+        <v>-572900</v>
       </c>
       <c r="I91" s="3">
-        <v>-616300</v>
+        <v>-484700</v>
       </c>
       <c r="J91" s="3">
+        <v>-584400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-566900</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2755,9 +3013,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2782,36 +3043,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1824300</v>
+        <v>-444800</v>
       </c>
       <c r="E94" s="3">
-        <v>-940300</v>
+        <v>-1729800</v>
       </c>
       <c r="F94" s="3">
-        <v>-906700</v>
+        <v>-891600</v>
       </c>
       <c r="G94" s="3">
-        <v>-852900</v>
+        <v>-859700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1261100</v>
+        <v>-808700</v>
       </c>
       <c r="I94" s="3">
-        <v>-554900</v>
+        <v>-1195800</v>
       </c>
       <c r="J94" s="3">
+        <v>-526100</v>
+      </c>
+      <c r="K94" s="3">
         <v>515500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2823,35 +3090,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-388700</v>
+        <v>-368700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1392100</v>
+        <v>-368600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1287000</v>
+        <v>-1320000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1117700</v>
+        <v>-1220300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1039000</v>
+        <v>-1059800</v>
       </c>
       <c r="I96" s="3">
-        <v>-979900</v>
+        <v>-985200</v>
       </c>
       <c r="J96" s="3">
+        <v>-929100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-846300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2876,9 +3147,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2903,9 +3177,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2930,88 +3207,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>621900</v>
+        <v>-438800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1333000</v>
+        <v>589700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1215800</v>
+        <v>-1263900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2068900</v>
+        <v>-1152800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1079300</v>
+        <v>-1961700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1065400</v>
+        <v>-1023400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1010200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-737200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-10300</v>
+        <v>147700</v>
       </c>
       <c r="E101" s="3">
-        <v>313000</v>
+        <v>-9800</v>
       </c>
       <c r="F101" s="3">
-        <v>-302400</v>
+        <v>296800</v>
       </c>
       <c r="G101" s="3">
-        <v>673100</v>
+        <v>-286800</v>
       </c>
       <c r="H101" s="3">
-        <v>72800</v>
+        <v>638200</v>
       </c>
       <c r="I101" s="3">
-        <v>-198900</v>
+        <v>69000</v>
       </c>
       <c r="J101" s="3">
+        <v>-188600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-24600</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-122800</v>
+        <v>269600</v>
       </c>
       <c r="E102" s="3">
-        <v>-369800</v>
+        <v>-116500</v>
       </c>
       <c r="F102" s="3">
-        <v>-86700</v>
+        <v>-350700</v>
       </c>
       <c r="G102" s="3">
-        <v>-125700</v>
+        <v>-82200</v>
       </c>
       <c r="H102" s="3">
-        <v>-293700</v>
+        <v>-119200</v>
       </c>
       <c r="I102" s="3">
-        <v>681800</v>
+        <v>-278500</v>
       </c>
       <c r="J102" s="3">
+        <v>646500</v>
+      </c>
+      <c r="K102" s="3">
         <v>886800</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA0C6CD-CA07-4CD1-9565-7149995D4F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ERIC" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>ERIC</t>
   </si>
@@ -296,12 +295,15 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22694600</v>
+        <v>21912400</v>
       </c>
       <c r="E8" s="3">
-        <v>22106900</v>
+        <v>21344900</v>
       </c>
       <c r="F8" s="3">
-        <v>23714800</v>
+        <v>22897400</v>
       </c>
       <c r="G8" s="3">
-        <v>26578500</v>
+        <v>25662400</v>
       </c>
       <c r="H8" s="3">
-        <v>24540100</v>
+        <v>23694300</v>
       </c>
       <c r="I8" s="3">
-        <v>24474800</v>
+        <v>23631200</v>
       </c>
       <c r="J8" s="3">
-        <v>24518100</v>
+        <v>23673100</v>
       </c>
       <c r="K8" s="3">
         <v>25760100</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14714400</v>
+        <v>14207200</v>
       </c>
       <c r="E9" s="3">
-        <v>16383800</v>
+        <v>15819100</v>
       </c>
       <c r="F9" s="3">
-        <v>16316800</v>
+        <v>15754400</v>
       </c>
       <c r="G9" s="3">
-        <v>17096100</v>
+        <v>16506900</v>
       </c>
       <c r="H9" s="3">
-        <v>15556900</v>
+        <v>15020700</v>
       </c>
       <c r="I9" s="3">
-        <v>15968200</v>
+        <v>15417800</v>
       </c>
       <c r="J9" s="3">
-        <v>16759400</v>
+        <v>16181800</v>
       </c>
       <c r="K9" s="3">
         <v>16710100</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7980200</v>
+        <v>7705200</v>
       </c>
       <c r="E10" s="3">
-        <v>5723100</v>
+        <v>5525900</v>
       </c>
       <c r="F10" s="3">
-        <v>7398000</v>
+        <v>7143000</v>
       </c>
       <c r="G10" s="3">
-        <v>9482300</v>
+        <v>9155500</v>
       </c>
       <c r="H10" s="3">
-        <v>8983200</v>
+        <v>8673600</v>
       </c>
       <c r="I10" s="3">
-        <v>8506600</v>
+        <v>8213400</v>
       </c>
       <c r="J10" s="3">
-        <v>7758700</v>
+        <v>7491300</v>
       </c>
       <c r="K10" s="3">
         <v>9049900</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4049000</v>
+        <v>3909400</v>
       </c>
       <c r="E12" s="3">
-        <v>3829800</v>
+        <v>3697800</v>
       </c>
       <c r="F12" s="3">
-        <v>3109900</v>
+        <v>3002700</v>
       </c>
       <c r="G12" s="3">
-        <v>3533100</v>
+        <v>3411300</v>
       </c>
       <c r="H12" s="3">
-        <v>3875500</v>
+        <v>3741900</v>
       </c>
       <c r="I12" s="3">
-        <v>3376000</v>
+        <v>3259700</v>
       </c>
       <c r="J12" s="3">
-        <v>3442400</v>
+        <v>3323800</v>
       </c>
       <c r="K12" s="3">
         <v>3641400</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,37 +873,37 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>910400</v>
+        <v>879000</v>
       </c>
       <c r="E14" s="3">
-        <v>2795200</v>
+        <v>2698900</v>
       </c>
       <c r="F14" s="3">
-        <v>805600</v>
+        <v>777800</v>
       </c>
       <c r="G14" s="3">
-        <v>542500</v>
+        <v>523800</v>
       </c>
       <c r="H14" s="3">
-        <v>156700</v>
+        <v>151300</v>
       </c>
       <c r="I14" s="3">
-        <v>479300</v>
+        <v>462800</v>
       </c>
       <c r="J14" s="3">
-        <v>165100</v>
+        <v>159400</v>
       </c>
       <c r="K14" s="3">
         <v>237600</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -976,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>22560900</v>
+        <v>21783300</v>
       </c>
       <c r="E17" s="3">
-        <v>25846600</v>
+        <v>24955800</v>
       </c>
       <c r="F17" s="3">
-        <v>23156500</v>
+        <v>22358400</v>
       </c>
       <c r="G17" s="3">
-        <v>24231400</v>
+        <v>23396200</v>
       </c>
       <c r="H17" s="3">
-        <v>22731000</v>
+        <v>21947500</v>
       </c>
       <c r="I17" s="3">
-        <v>22553900</v>
+        <v>21776600</v>
       </c>
       <c r="J17" s="3">
-        <v>23392400</v>
+        <v>22586200</v>
       </c>
       <c r="K17" s="3">
         <v>23728100</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>133700</v>
+        <v>129100</v>
       </c>
       <c r="E18" s="3">
-        <v>-3739700</v>
+        <v>-3610800</v>
       </c>
       <c r="F18" s="3">
-        <v>558300</v>
+        <v>539100</v>
       </c>
       <c r="G18" s="3">
-        <v>2347100</v>
+        <v>2266200</v>
       </c>
       <c r="H18" s="3">
-        <v>1809100</v>
+        <v>1746800</v>
       </c>
       <c r="I18" s="3">
-        <v>1920800</v>
+        <v>1854600</v>
       </c>
       <c r="J18" s="3">
-        <v>1125700</v>
+        <v>1086900</v>
       </c>
       <c r="K18" s="3">
         <v>2032000</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-183800</v>
+        <v>-177500</v>
       </c>
       <c r="E20" s="3">
-        <v>-20200</v>
+        <v>-19500</v>
       </c>
       <c r="F20" s="3">
-        <v>-101000</v>
+        <v>-97500</v>
       </c>
       <c r="G20" s="3">
-        <v>-54400</v>
+        <v>-52500</v>
       </c>
       <c r="H20" s="3">
-        <v>40900</v>
+        <v>39500</v>
       </c>
       <c r="I20" s="3">
-        <v>71600</v>
+        <v>69100</v>
       </c>
       <c r="J20" s="3">
-        <v>156900</v>
+        <v>151500</v>
       </c>
       <c r="K20" s="3">
         <v>218800</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>728100</v>
+        <v>705000</v>
       </c>
       <c r="E21" s="3">
-        <v>-2849100</v>
+        <v>-2748600</v>
       </c>
       <c r="F21" s="3">
-        <v>1415100</v>
+        <v>1368800</v>
       </c>
       <c r="G21" s="3">
-        <v>3394600</v>
+        <v>3280400</v>
       </c>
       <c r="H21" s="3">
-        <v>2919900</v>
+        <v>2822000</v>
       </c>
       <c r="I21" s="3">
-        <v>3086900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2348500</v>
+        <v>2983300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="3">
         <v>3277900</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>107300</v>
+        <v>103600</v>
       </c>
       <c r="E22" s="3">
-        <v>110500</v>
+        <v>106700</v>
       </c>
       <c r="F22" s="3">
-        <v>145900</v>
+        <v>140800</v>
       </c>
       <c r="G22" s="3">
-        <v>153700</v>
+        <v>148400</v>
       </c>
       <c r="H22" s="3">
-        <v>148100</v>
+        <v>143000</v>
       </c>
       <c r="I22" s="3">
-        <v>152000</v>
+        <v>146700</v>
       </c>
       <c r="J22" s="3">
-        <v>186600</v>
+        <v>180200</v>
       </c>
       <c r="K22" s="3">
         <v>193700</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-157500</v>
+        <v>-152000</v>
       </c>
       <c r="E23" s="3">
-        <v>-3870500</v>
+        <v>-3737100</v>
       </c>
       <c r="F23" s="3">
-        <v>311500</v>
+        <v>300800</v>
       </c>
       <c r="G23" s="3">
-        <v>2139000</v>
+        <v>2065300</v>
       </c>
       <c r="H23" s="3">
-        <v>1701900</v>
+        <v>1643200</v>
       </c>
       <c r="I23" s="3">
-        <v>1840400</v>
+        <v>1777000</v>
       </c>
       <c r="J23" s="3">
-        <v>1096000</v>
+        <v>1058200</v>
       </c>
       <c r="K23" s="3">
         <v>2057100</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>518100</v>
+        <v>500200</v>
       </c>
       <c r="E24" s="3">
-        <v>-379400</v>
+        <v>-366400</v>
       </c>
       <c r="F24" s="3">
-        <v>202600</v>
+        <v>195600</v>
       </c>
       <c r="G24" s="3">
-        <v>667300</v>
+        <v>644300</v>
       </c>
       <c r="H24" s="3">
-        <v>502500</v>
+        <v>485100</v>
       </c>
       <c r="I24" s="3">
-        <v>530000</v>
+        <v>511800</v>
       </c>
       <c r="J24" s="3">
-        <v>456800</v>
+        <v>441100</v>
       </c>
       <c r="K24" s="3">
         <v>630300</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-675500</v>
+        <v>-652300</v>
       </c>
       <c r="E26" s="3">
-        <v>-3491100</v>
+        <v>-3370800</v>
       </c>
       <c r="F26" s="3">
-        <v>108900</v>
+        <v>105200</v>
       </c>
       <c r="G26" s="3">
-        <v>1471800</v>
+        <v>1421000</v>
       </c>
       <c r="H26" s="3">
-        <v>1199400</v>
+        <v>1158100</v>
       </c>
       <c r="I26" s="3">
-        <v>1310400</v>
+        <v>1265200</v>
       </c>
       <c r="J26" s="3">
-        <v>639200</v>
+        <v>617100</v>
       </c>
       <c r="K26" s="3">
         <v>1426800</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-702900</v>
+        <v>-678700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3506500</v>
+        <v>-3385600</v>
       </c>
       <c r="F27" s="3">
-        <v>89700</v>
+        <v>86600</v>
       </c>
       <c r="G27" s="3">
-        <v>1458400</v>
+        <v>1408100</v>
       </c>
       <c r="H27" s="3">
-        <v>1245200</v>
+        <v>1202300</v>
       </c>
       <c r="I27" s="3">
-        <v>1292200</v>
+        <v>1247700</v>
       </c>
       <c r="J27" s="3">
-        <v>621600</v>
+        <v>600200</v>
       </c>
       <c r="K27" s="3">
         <v>1384300</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>183800</v>
+        <v>177500</v>
       </c>
       <c r="E32" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="F32" s="3">
-        <v>101000</v>
+        <v>97500</v>
       </c>
       <c r="G32" s="3">
-        <v>54400</v>
+        <v>52500</v>
       </c>
       <c r="H32" s="3">
-        <v>-40900</v>
+        <v>-39500</v>
       </c>
       <c r="I32" s="3">
-        <v>-71600</v>
+        <v>-69100</v>
       </c>
       <c r="J32" s="3">
-        <v>-156900</v>
+        <v>-151500</v>
       </c>
       <c r="K32" s="3">
         <v>-218800</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-702900</v>
+        <v>-678700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3506500</v>
+        <v>-3385600</v>
       </c>
       <c r="F33" s="3">
-        <v>89700</v>
+        <v>86600</v>
       </c>
       <c r="G33" s="3">
-        <v>1458400</v>
+        <v>1408100</v>
       </c>
       <c r="H33" s="3">
-        <v>1245200</v>
+        <v>1202300</v>
       </c>
       <c r="I33" s="3">
-        <v>1292200</v>
+        <v>1247700</v>
       </c>
       <c r="J33" s="3">
-        <v>621600</v>
+        <v>600200</v>
       </c>
       <c r="K33" s="3">
         <v>1384300</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1500,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-702900</v>
+        <v>-678700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3506500</v>
+        <v>-3385600</v>
       </c>
       <c r="F35" s="3">
-        <v>89700</v>
+        <v>86600</v>
       </c>
       <c r="G35" s="3">
-        <v>1458400</v>
+        <v>1408100</v>
       </c>
       <c r="H35" s="3">
-        <v>1245200</v>
+        <v>1202300</v>
       </c>
       <c r="I35" s="3">
-        <v>1292200</v>
+        <v>1247700</v>
       </c>
       <c r="J35" s="3">
-        <v>621600</v>
+        <v>600200</v>
       </c>
       <c r="K35" s="3">
         <v>1384300</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1593,277 +1561,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2044900</v>
+        <v>1974500</v>
       </c>
       <c r="E41" s="3">
-        <v>1980900</v>
+        <v>1912600</v>
       </c>
       <c r="F41" s="3">
-        <v>6732100</v>
+        <v>6500100</v>
       </c>
       <c r="G41" s="3">
-        <v>2414500</v>
+        <v>2331300</v>
       </c>
       <c r="H41" s="3">
-        <v>3191500</v>
+        <v>3081500</v>
       </c>
       <c r="I41" s="3">
-        <v>3080400</v>
+        <v>2974300</v>
       </c>
       <c r="J41" s="3">
-        <v>4809600</v>
+        <v>4643800</v>
       </c>
       <c r="K41" s="3">
         <v>4390500</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2800400</v>
+        <v>2703800</v>
       </c>
       <c r="E42" s="3">
-        <v>2604200</v>
+        <v>2514500</v>
       </c>
       <c r="F42" s="3">
-        <v>2660200</v>
+        <v>2568500</v>
       </c>
       <c r="G42" s="3">
-        <v>4718800</v>
+        <v>4556200</v>
       </c>
       <c r="H42" s="3">
-        <v>4575700</v>
+        <v>4418000</v>
       </c>
       <c r="I42" s="3">
-        <v>5217400</v>
+        <v>5037600</v>
       </c>
       <c r="J42" s="3">
-        <v>3447300</v>
+        <v>3328500</v>
       </c>
       <c r="K42" s="3">
         <v>4752600</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9055200</v>
+        <v>8743100</v>
       </c>
       <c r="E43" s="3">
-        <v>15687500</v>
+        <v>15146800</v>
       </c>
       <c r="F43" s="3">
-        <v>19239900</v>
+        <v>18576800</v>
       </c>
       <c r="G43" s="3">
-        <v>9523000</v>
+        <v>9194800</v>
       </c>
       <c r="H43" s="3">
-        <v>10032200</v>
+        <v>9686400</v>
       </c>
       <c r="I43" s="3">
-        <v>9031300</v>
+        <v>8720000</v>
       </c>
       <c r="J43" s="3">
-        <v>8832200</v>
+        <v>8527800</v>
       </c>
       <c r="K43" s="3">
         <v>9211600</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3149000</v>
+        <v>3040500</v>
       </c>
       <c r="E44" s="3">
-        <v>2749900</v>
+        <v>2655100</v>
       </c>
       <c r="F44" s="3">
-        <v>6665600</v>
+        <v>6435900</v>
       </c>
       <c r="G44" s="3">
-        <v>3060900</v>
+        <v>2955400</v>
       </c>
       <c r="H44" s="3">
-        <v>3032800</v>
+        <v>2928200</v>
       </c>
       <c r="I44" s="3">
-        <v>2449800</v>
+        <v>2365300</v>
       </c>
       <c r="J44" s="3">
-        <v>3100200</v>
+        <v>2993400</v>
       </c>
       <c r="K44" s="3">
         <v>3754100</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>298500</v>
+        <v>288200</v>
       </c>
       <c r="E45" s="3">
-        <v>440400</v>
+        <v>425200</v>
       </c>
       <c r="F45" s="3">
-        <v>752700</v>
+        <v>726800</v>
       </c>
       <c r="G45" s="3">
-        <v>683300</v>
+        <v>659700</v>
       </c>
       <c r="H45" s="3">
-        <v>888500</v>
+        <v>857800</v>
       </c>
       <c r="I45" s="3">
-        <v>769100</v>
+        <v>742600</v>
       </c>
       <c r="J45" s="3">
-        <v>612600</v>
+        <v>591500</v>
       </c>
       <c r="K45" s="3">
         <v>460800</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17348000</v>
+        <v>16750100</v>
       </c>
       <c r="E46" s="3">
-        <v>16514500</v>
+        <v>15945300</v>
       </c>
       <c r="F46" s="3">
-        <v>18847400</v>
+        <v>18197800</v>
       </c>
       <c r="G46" s="3">
-        <v>20400500</v>
+        <v>19697300</v>
       </c>
       <c r="H46" s="3">
-        <v>21720600</v>
+        <v>20971900</v>
       </c>
       <c r="I46" s="3">
-        <v>20548000</v>
+        <v>19839800</v>
       </c>
       <c r="J46" s="3">
-        <v>20801900</v>
+        <v>20084900</v>
       </c>
       <c r="K46" s="3">
         <v>22569600</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3643300</v>
+        <v>3517700</v>
       </c>
       <c r="E47" s="3">
-        <v>3767100</v>
+        <v>3637200</v>
       </c>
       <c r="F47" s="3">
-        <v>2212300</v>
+        <v>2136100</v>
       </c>
       <c r="G47" s="3">
-        <v>1012500</v>
+        <v>977600</v>
       </c>
       <c r="H47" s="3">
-        <v>1148000</v>
+        <v>1108400</v>
       </c>
       <c r="I47" s="3">
-        <v>1015900</v>
+        <v>980900</v>
       </c>
       <c r="J47" s="3">
-        <v>913000</v>
+        <v>881500</v>
       </c>
       <c r="K47" s="3">
         <v>1553100</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1383100</v>
+        <v>1335400</v>
       </c>
       <c r="E48" s="3">
-        <v>1383900</v>
+        <v>1336200</v>
       </c>
       <c r="F48" s="3">
-        <v>3602500</v>
+        <v>3478300</v>
       </c>
       <c r="G48" s="3">
-        <v>1711600</v>
+        <v>1652600</v>
       </c>
       <c r="H48" s="3">
-        <v>1436000</v>
+        <v>1386500</v>
       </c>
       <c r="I48" s="3">
-        <v>1230600</v>
+        <v>1188200</v>
       </c>
       <c r="J48" s="3">
-        <v>1237100</v>
+        <v>1194500</v>
       </c>
       <c r="K48" s="3">
         <v>1224700</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4063000</v>
+        <v>3922900</v>
       </c>
       <c r="E49" s="3">
-        <v>3934900</v>
+        <v>3799300</v>
       </c>
       <c r="F49" s="3">
-        <v>12746700</v>
+        <v>12307400</v>
       </c>
       <c r="G49" s="3">
-        <v>6016600</v>
+        <v>5809300</v>
       </c>
       <c r="H49" s="3">
-        <v>5859300</v>
+        <v>5657300</v>
       </c>
       <c r="I49" s="3">
-        <v>5135200</v>
+        <v>4958200</v>
       </c>
       <c r="J49" s="3">
-        <v>5322400</v>
+        <v>5138900</v>
       </c>
       <c r="K49" s="3">
         <v>4999900</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1923,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2492100</v>
+        <v>2406200</v>
       </c>
       <c r="E52" s="3">
-        <v>2373400</v>
+        <v>2291600</v>
       </c>
       <c r="F52" s="3">
-        <v>1829700</v>
+        <v>1766600</v>
       </c>
       <c r="G52" s="3">
-        <v>1467700</v>
+        <v>1417100</v>
       </c>
       <c r="H52" s="3">
-        <v>1434700</v>
+        <v>1385300</v>
       </c>
       <c r="I52" s="3">
-        <v>1045800</v>
+        <v>1009800</v>
       </c>
       <c r="J52" s="3">
-        <v>1326200</v>
+        <v>1280500</v>
       </c>
       <c r="K52" s="3">
         <v>1478000</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>28929400</v>
+        <v>27932300</v>
       </c>
       <c r="E54" s="3">
-        <v>27973700</v>
+        <v>27009500</v>
       </c>
       <c r="F54" s="3">
-        <v>30585900</v>
+        <v>29531700</v>
       </c>
       <c r="G54" s="3">
-        <v>30608800</v>
+        <v>29553800</v>
       </c>
       <c r="H54" s="3">
-        <v>31598600</v>
+        <v>30509500</v>
       </c>
       <c r="I54" s="3">
-        <v>28975600</v>
+        <v>27976900</v>
       </c>
       <c r="J54" s="3">
-        <v>29600600</v>
+        <v>28580300</v>
       </c>
       <c r="K54" s="3">
         <v>31825200</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2041,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3216600</v>
+        <v>3105700</v>
       </c>
       <c r="E57" s="3">
-        <v>2833100</v>
+        <v>2735400</v>
       </c>
       <c r="F57" s="3">
-        <v>5507100</v>
+        <v>5317300</v>
       </c>
       <c r="G57" s="3">
-        <v>2410000</v>
+        <v>2326900</v>
       </c>
       <c r="H57" s="3">
-        <v>2634300</v>
+        <v>2543500</v>
       </c>
       <c r="I57" s="3">
-        <v>2206800</v>
+        <v>2130800</v>
       </c>
       <c r="J57" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="K57" s="3">
         <v>11600</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>242700</v>
+        <v>234400</v>
       </c>
       <c r="E58" s="3">
-        <v>273900</v>
+        <v>264500</v>
       </c>
       <c r="F58" s="3">
-        <v>1729300</v>
+        <v>1669700</v>
       </c>
       <c r="G58" s="3">
-        <v>255800</v>
+        <v>246900</v>
       </c>
       <c r="H58" s="3">
-        <v>245500</v>
+        <v>237100</v>
       </c>
       <c r="I58" s="3">
-        <v>795200</v>
+        <v>767800</v>
       </c>
       <c r="J58" s="3">
-        <v>513300</v>
+        <v>495600</v>
       </c>
       <c r="K58" s="3">
         <v>881500</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>8479400</v>
+        <v>8187200</v>
       </c>
       <c r="E59" s="3">
-        <v>10519500</v>
+        <v>10157000</v>
       </c>
       <c r="F59" s="3">
-        <v>13232100</v>
+        <v>12776000</v>
       </c>
       <c r="G59" s="3">
-        <v>6708700</v>
+        <v>6477400</v>
       </c>
       <c r="H59" s="3">
-        <v>7972900</v>
+        <v>7698100</v>
       </c>
       <c r="I59" s="3">
-        <v>6830200</v>
+        <v>6594800</v>
       </c>
       <c r="J59" s="3">
-        <v>9962500</v>
+        <v>9619100</v>
       </c>
       <c r="K59" s="3">
         <v>10121700</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11938800</v>
+        <v>11527300</v>
       </c>
       <c r="E60" s="3">
-        <v>10713300</v>
+        <v>10344000</v>
       </c>
       <c r="F60" s="3">
-        <v>10850400</v>
+        <v>10476500</v>
       </c>
       <c r="G60" s="3">
-        <v>9374400</v>
+        <v>9051300</v>
       </c>
       <c r="H60" s="3">
-        <v>10852700</v>
+        <v>10478600</v>
       </c>
       <c r="I60" s="3">
-        <v>9832300</v>
+        <v>9493400</v>
       </c>
       <c r="J60" s="3">
-        <v>10484600</v>
+        <v>10123200</v>
       </c>
       <c r="K60" s="3">
         <v>11014700</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3322800</v>
+        <v>3208300</v>
       </c>
       <c r="E61" s="3">
-        <v>3283000</v>
+        <v>3169900</v>
       </c>
       <c r="F61" s="3">
-        <v>2007800</v>
+        <v>1938600</v>
       </c>
       <c r="G61" s="3">
-        <v>2448200</v>
+        <v>2363800</v>
       </c>
       <c r="H61" s="3">
-        <v>2353400</v>
+        <v>2272300</v>
       </c>
       <c r="I61" s="3">
-        <v>2375300</v>
+        <v>2293400</v>
       </c>
       <c r="J61" s="3">
-        <v>2572400</v>
+        <v>2483700</v>
       </c>
       <c r="K61" s="3">
         <v>2640000</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4220200</v>
+        <v>4074800</v>
       </c>
       <c r="E62" s="3">
-        <v>3474800</v>
+        <v>3355100</v>
       </c>
       <c r="F62" s="3">
-        <v>3168600</v>
+        <v>3059400</v>
       </c>
       <c r="G62" s="3">
-        <v>2923800</v>
+        <v>2823100</v>
       </c>
       <c r="H62" s="3">
-        <v>2751400</v>
+        <v>2656600</v>
       </c>
       <c r="I62" s="3">
-        <v>1523800</v>
+        <v>1471200</v>
       </c>
       <c r="J62" s="3">
-        <v>1637300</v>
+        <v>1580900</v>
       </c>
       <c r="K62" s="3">
         <v>1679400</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2311,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>19567100</v>
+        <v>18892700</v>
       </c>
       <c r="E66" s="3">
-        <v>17539600</v>
+        <v>16935100</v>
       </c>
       <c r="F66" s="3">
-        <v>16099500</v>
+        <v>15544600</v>
       </c>
       <c r="G66" s="3">
-        <v>14836900</v>
+        <v>14325500</v>
       </c>
       <c r="H66" s="3">
-        <v>16065500</v>
+        <v>15511800</v>
       </c>
       <c r="I66" s="3">
-        <v>13884100</v>
+        <v>13405500</v>
       </c>
       <c r="J66" s="3">
-        <v>14866500</v>
+        <v>14354100</v>
       </c>
       <c r="K66" s="3">
         <v>15579900</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2385,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2475,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4905700</v>
+        <v>4736600</v>
       </c>
       <c r="E72" s="3">
-        <v>5977500</v>
+        <v>5771400</v>
       </c>
       <c r="F72" s="3">
-        <v>10031400</v>
+        <v>9685700</v>
       </c>
       <c r="G72" s="3">
-        <v>11331000</v>
+        <v>10940500</v>
       </c>
       <c r="H72" s="3">
-        <v>11092200</v>
+        <v>10709900</v>
       </c>
       <c r="I72" s="3">
-        <v>10650700</v>
+        <v>10283600</v>
       </c>
       <c r="J72" s="3">
-        <v>10293200</v>
+        <v>9938400</v>
       </c>
       <c r="K72" s="3">
         <v>11579800</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2535,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2565,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2595,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9362300</v>
+        <v>9039600</v>
       </c>
       <c r="E76" s="3">
-        <v>10434100</v>
+        <v>10074500</v>
       </c>
       <c r="F76" s="3">
-        <v>14486400</v>
+        <v>13987100</v>
       </c>
       <c r="G76" s="3">
-        <v>15772000</v>
+        <v>15228300</v>
       </c>
       <c r="H76" s="3">
-        <v>15533100</v>
+        <v>14997700</v>
       </c>
       <c r="I76" s="3">
-        <v>15091600</v>
+        <v>14571400</v>
       </c>
       <c r="J76" s="3">
-        <v>14734100</v>
+        <v>14226300</v>
       </c>
       <c r="K76" s="3">
         <v>16245300</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2655,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2690,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-702900</v>
+        <v>-678700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3506500</v>
+        <v>-3385600</v>
       </c>
       <c r="F81" s="3">
-        <v>89700</v>
+        <v>86600</v>
       </c>
       <c r="G81" s="3">
-        <v>1458400</v>
+        <v>1408100</v>
       </c>
       <c r="H81" s="3">
-        <v>1245200</v>
+        <v>1202300</v>
       </c>
       <c r="I81" s="3">
-        <v>1292200</v>
+        <v>1247700</v>
       </c>
       <c r="J81" s="3">
-        <v>621600</v>
+        <v>600200</v>
       </c>
       <c r="K81" s="3">
         <v>1384300</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2734,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>777300</v>
+        <v>750500</v>
       </c>
       <c r="E83" s="3">
-        <v>909700</v>
+        <v>878300</v>
       </c>
       <c r="F83" s="3">
-        <v>956500</v>
+        <v>923500</v>
       </c>
       <c r="G83" s="3">
-        <v>1100400</v>
+        <v>1062500</v>
       </c>
       <c r="H83" s="3">
-        <v>1068500</v>
+        <v>1031700</v>
       </c>
       <c r="I83" s="3">
-        <v>1093100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1064500</v>
+        <v>1055400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K83" s="3">
         <v>1025800</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2794,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2824,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2884,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2914,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1005600</v>
+        <v>970900</v>
       </c>
       <c r="E89" s="3">
-        <v>1033500</v>
+        <v>997800</v>
       </c>
       <c r="F89" s="3">
-        <v>1508000</v>
+        <v>1456100</v>
       </c>
       <c r="G89" s="3">
-        <v>2217100</v>
+        <v>2140600</v>
       </c>
       <c r="H89" s="3">
-        <v>2013100</v>
+        <v>1943700</v>
       </c>
       <c r="I89" s="3">
-        <v>1871800</v>
+        <v>1807200</v>
       </c>
       <c r="J89" s="3">
-        <v>2371400</v>
+        <v>2289700</v>
       </c>
       <c r="K89" s="3">
         <v>1133200</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2958,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-427900</v>
+        <v>-413100</v>
       </c>
       <c r="E91" s="3">
-        <v>-417300</v>
+        <v>-402900</v>
       </c>
       <c r="F91" s="3">
-        <v>-659700</v>
+        <v>-637000</v>
       </c>
       <c r="G91" s="3">
-        <v>-897500</v>
+        <v>-866600</v>
       </c>
       <c r="H91" s="3">
-        <v>-572900</v>
+        <v>-553100</v>
       </c>
       <c r="I91" s="3">
-        <v>-484700</v>
+        <v>-468000</v>
       </c>
       <c r="J91" s="3">
-        <v>-584400</v>
+        <v>-564200</v>
       </c>
       <c r="K91" s="3">
         <v>-566900</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3018,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3048,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-444800</v>
+        <v>-429400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1729800</v>
+        <v>-1670200</v>
       </c>
       <c r="F94" s="3">
-        <v>-891600</v>
+        <v>-860900</v>
       </c>
       <c r="G94" s="3">
-        <v>-859700</v>
+        <v>-830100</v>
       </c>
       <c r="H94" s="3">
-        <v>-808700</v>
+        <v>-780800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1195800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-526100</v>
+        <v>-1154600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K94" s="3">
         <v>515500</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3092,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-368700</v>
+        <v>-356000</v>
       </c>
       <c r="E96" s="3">
-        <v>-368600</v>
+        <v>-355900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1320000</v>
+        <v>-1274500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1220300</v>
+        <v>-1178300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1059800</v>
+        <v>-1023300</v>
       </c>
       <c r="I96" s="3">
-        <v>-985200</v>
+        <v>-951300</v>
       </c>
       <c r="J96" s="3">
-        <v>-929100</v>
+        <v>-897100</v>
       </c>
       <c r="K96" s="3">
         <v>-846300</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3152,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3182,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3212,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-438800</v>
+        <v>-423700</v>
       </c>
       <c r="E100" s="3">
-        <v>589700</v>
+        <v>569300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1263900</v>
+        <v>-1220300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1152800</v>
+        <v>-1113100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1961700</v>
+        <v>-1894100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1023400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1010200</v>
+        <v>-988200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K100" s="3">
         <v>-737200</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>147700</v>
+        <v>142600</v>
       </c>
       <c r="E101" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="F101" s="3">
-        <v>296800</v>
+        <v>286500</v>
       </c>
       <c r="G101" s="3">
-        <v>-286800</v>
+        <v>-276900</v>
       </c>
       <c r="H101" s="3">
-        <v>638200</v>
+        <v>616200</v>
       </c>
       <c r="I101" s="3">
-        <v>69000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-188600</v>
+        <v>66600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K101" s="3">
         <v>-24600</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>269600</v>
+        <v>260300</v>
       </c>
       <c r="E102" s="3">
-        <v>-116500</v>
+        <v>-112500</v>
       </c>
       <c r="F102" s="3">
-        <v>-350700</v>
+        <v>-338600</v>
       </c>
       <c r="G102" s="3">
-        <v>-82200</v>
+        <v>-79400</v>
       </c>
       <c r="H102" s="3">
-        <v>-119200</v>
+        <v>-115100</v>
       </c>
       <c r="I102" s="3">
-        <v>-278500</v>
+        <v>-268900</v>
       </c>
       <c r="J102" s="3">
-        <v>646500</v>
+        <v>624200</v>
       </c>
       <c r="K102" s="3">
         <v>886800</v>
